--- a/data/facebook_ad_insights.xlsx
+++ b/data/facebook_ad_insights.xlsx
@@ -1,3 +1,128 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Ad Insights" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -446,7 +571,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t15.13418-10/501889290_1042930707979791_8158936838022066065_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_ohc=XEKTHBplqzcQ7kNvwHfnQMI&amp;_nc_oc=AdmwD7IeMRPAOUfJiHfg2YQW4XDXmFyOWrZKsN71tCucu2L95qQyRQMrfUuWi1ichTs&amp;_nc_zt=23&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=2fyLqwWzqLUKu-bTmzUNIw&amp;stp=c0.5000x0.5000f_dst-emg0_p64x64_q75_tt6&amp;ur=ace027&amp;_nc_sid=58080a&amp;oh=00_AfJjtyr76EqIMV5FPliQNeuHmcoub2vZeszYuxUDTbe6vg&amp;oe=68425A88</t>
+          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t15.13418-10/501889290_1042930707979791_8158936838022066065_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_ohc=XEKTHBplqzcQ7kNvwHfnQMI&amp;_nc_oc=AdmwD7IeMRPAOUfJiHfg2YQW4XDXmFyOWrZKsN71tCucu2L95qQyRQMrfUuWi1ichTs&amp;_nc_zt=23&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=uZXd4SJMXf0O6aoufWrSsQ&amp;stp=c0.5000x0.5000f_dst-emg0_p64x64_q75_tt6&amp;ur=ace027&amp;_nc_sid=58080a&amp;oh=00_AfLBBahW0nshzOQzc_ql-04nuANh9mtiSVg4c234QeqBCw&amp;oe=68425A88</t>
         </is>
       </c>
     </row>
@@ -483,7 +608,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t45.1600-4/489370265_1683908269154389_3037557852137503400_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=890911&amp;_nc_ohc=Fjqv04fnTP0Q7kNvwEtNG5b&amp;_nc_oc=AdnXtaY_mKy0XHr33PDaoz6fuypZMQxIsbA_-GpvpXThnz3lIFwmV0lMHVqxdHMRVOM&amp;_nc_zt=1&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=rHgla-WCjc_C7TT5pL6qpg&amp;oh=00_AfJB40oZ4YvZjbSEvl9BuqEYCWGhRjYe1EEDL1ymtm6olw&amp;oe=68424FE7</t>
+          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t45.1600-4/489370265_1683908269154389_3037557852137503400_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=890911&amp;_nc_ohc=Fjqv04fnTP0Q7kNvwEtNG5b&amp;_nc_oc=AdnXtaY_mKy0XHr33PDaoz6fuypZMQxIsbA_-GpvpXThnz3lIFwmV0lMHVqxdHMRVOM&amp;_nc_zt=1&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=aFy_ysFtPTSlg4WQ97EFtQ&amp;oh=00_AfISNJhYkYuL93F-PWwc8cDVRtcvtzr8S4VkIy2tZW9oXw&amp;oe=68424FE7</t>
         </is>
       </c>
     </row>
@@ -520,7 +645,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t45.1600-4/464871870_120212238812370014_2964722978393947677_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=890911&amp;_nc_ohc=So-pMyXooL8Q7kNvwGNJazZ&amp;_nc_oc=AdkBNAiNX-6S3VJRYY5A0gD7E3IN5ckh718TNXH5dItGPAQ88HPbT62BYmnpIE5eydk&amp;_nc_zt=1&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=xO982hId7cotrloZ9UDUyQ&amp;oh=00_AfLSJ3H2ER50BJhQCwMXYh1Bd30xW3XOEKCm6PGRsmhdhQ&amp;oe=68426245</t>
+          <t>https://scontent-icn2-1.xx.fbcdn.net/v/t45.1600-4/464871870_120212238812370014_2964722978393947677_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=890911&amp;_nc_ohc=So-pMyXooL8Q7kNvwGNJazZ&amp;_nc_oc=AdkBNAiNX-6S3VJRYY5A0gD7E3IN5ckh718TNXH5dItGPAQ88HPbT62BYmnpIE5eydk&amp;_nc_zt=1&amp;_nc_ht=scontent-icn2-1.xx&amp;edm=AAT1rw8EAAAA&amp;_nc_gid=KZWYb6IjBMG9XCpIr9gd8g&amp;oh=00_AfIMuyOC3Er5TrLg6xmEv9RQbfKHA7kRdscWWWPwuYyTtg&amp;oe=68426245</t>
         </is>
       </c>
     </row>
